--- a/img/performance_analysis.xlsx
+++ b/img/performance_analysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cggt first year\cis565\Project2\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CC10CF-0585-4BC4-BFF5-891995A10280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590AF6D2-D0B7-47AA-B3CC-0267C380A941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="-108" windowWidth="29940" windowHeight="17496" activeTab="1" xr2:uid="{4B98C427-ABED-40D9-9CF5-910FC0AF4AAA}"/>
+    <workbookView xWindow="888" yWindow="-108" windowWidth="29940" windowHeight="17496" xr2:uid="{4B98C427-ABED-40D9-9CF5-910FC0AF4AAA}"/>
   </bookViews>
   <sheets>
     <sheet name="pow-of-two" sheetId="1" r:id="rId1"/>
     <sheet name="non-pow-of-two" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>naïve scan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7999,10 +8000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CE84A5-2563-4FFD-BC3E-6EEBD0C18B3C}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8495,6 +8496,83 @@
         <v>22.005800000000001</v>
       </c>
     </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>32</v>
+      </c>
+      <c r="C52">
+        <v>64</v>
+      </c>
+      <c r="D52">
+        <v>96</v>
+      </c>
+      <c r="E52">
+        <v>128</v>
+      </c>
+      <c r="F52">
+        <v>192</v>
+      </c>
+      <c r="G52">
+        <v>256</v>
+      </c>
+      <c r="H52">
+        <v>384</v>
+      </c>
+      <c r="I52">
+        <v>512</v>
+      </c>
+      <c r="J52">
+        <v>768</v>
+      </c>
+      <c r="K52">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8506,8 +8584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583183FC-D643-484F-A94E-9DAF9A5E97CE}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9004,4 +9082,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AB2A41-730A-4E25-8004-49FB2F00AA92}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/img/performance_analysis.xlsx
+++ b/img/performance_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cggt first year\cis565\Project2\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590AF6D2-D0B7-47AA-B3CC-0267C380A941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4336899E-76B5-4BED-B6EF-53C2F5EAC98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="888" yWindow="-108" windowWidth="29940" windowHeight="17496" xr2:uid="{4B98C427-ABED-40D9-9CF5-910FC0AF4AAA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>naïve scan</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,14 @@
   </si>
   <si>
     <t>gpu compaction</t>
+  </si>
+  <si>
+    <t>gpu radix sort (check 32 bits)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpu radix sort (check 6 bits)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -341,7 +349,7 @@
                   <c:v>0.56040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52880000000000005</c:v>
+                  <c:v>3.1194999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10.0115</c:v>
@@ -464,7 +472,7 @@
                   <c:v>0.16758400000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.146592</c:v>
+                  <c:v>0.30854399999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.76422400000000001</c:v>
@@ -587,7 +595,7 @@
                   <c:v>0.82124799999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3408</c:v>
+                  <c:v>6.11226</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11.9429</c:v>
@@ -710,7 +718,7 @@
                   <c:v>0.35747200000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35430400000000001</c:v>
+                  <c:v>1.1892199999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4.8364500000000001</c:v>
@@ -747,6 +755,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -813,6 +877,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1030,7 +1150,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gpu radix sort</c:v>
+                  <c:v>gpu radix sort (check 32 bits)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1153,7 +1273,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>thrust sort</c:v>
+                  <c:v>gpu radix sort (check 6 bits)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1222,40 +1342,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4.9152000000000001E-2</c:v>
+                  <c:v>0.56217600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9327999999999999E-2</c:v>
+                  <c:v>0.61439999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1200000000000002E-2</c:v>
+                  <c:v>0.75779200000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.024E-2</c:v>
+                  <c:v>0.81920000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5295999999999998E-2</c:v>
+                  <c:v>0.89071999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9743999999999999E-2</c:v>
+                  <c:v>1.4723200000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.3855999999999995E-2</c:v>
+                  <c:v>1.5288299999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20268800000000001</c:v>
+                  <c:v>1.3312999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.348576</c:v>
+                  <c:v>3.3484799999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.46079999999999999</c:v>
+                  <c:v>11.535399999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.52867</c:v>
+                  <c:v>43.657200000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.7796</c:v>
+                  <c:v>166.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,6 +1384,129 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1BE7-4E45-9BA7-BF06FC1884B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pow-of-two'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>thrust sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'pow-of-two'!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>67108864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pow-of-two'!$B$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.9152000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9327999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.024E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5295999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9743999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3855999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20268800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.348576</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.52867</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.7796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1BE7-4E45-9BA7-BF06FC1884B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1286,6 +1529,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1352,6 +1651,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1952,6 +2307,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1974,7 +2385,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2018,6 +2429,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2034,7 +2501,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2076,7 +2543,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2137,6 +2604,1689 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+              <a:t>Scan</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+              <a:t> Time Impacted by CUDA Block Size </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(Power of Two) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>(small is better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pow-of-two'!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>naïve scan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'pow-of-two'!$B$52:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pow-of-two'!$B$55:$K$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.26054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65843200000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.854016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.14893</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60723199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61542399999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0065900000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60841599999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.616448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69529600000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A9C9-4458-A56A-3FF86E13120C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pow-of-two'!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>work efficient scan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'pow-of-two'!$B$52:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pow-of-two'!$B$56:$K$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.36480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35020800000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35123199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35737600000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53247999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35948799999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35532799999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36659199999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57139200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39219199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A9C9-4458-A56A-3FF86E13120C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1647711535"/>
+        <c:axId val="1647711951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1647711535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
+                  <a:t>CUDA Block Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1647711951"/>
+        <c:crossesAt val="1.0000000000000003E-4"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1647711951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1647711535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+              <a:t>Radix Sort </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+              <a:t>Impacted by CUDA Block Size </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(Power of Two) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>(small is better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pow-of-two'!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gpu radix sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'pow-of-two'!$B$58:$K$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pow-of-two'!$B$59:$K$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20.937799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.501799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.706299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.191400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.696200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.273599999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.1235</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.3203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.9315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.659099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF63-4023-9976-03DC8991549A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1647711535"/>
+        <c:axId val="1647711951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1647711535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
+                  <a:t>CUDA Block Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1647711951"/>
+        <c:crossesAt val="1.0000000000000003E-4"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1647711951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1647711535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+              <a:t>Compaction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+              <a:t> Time Impacted by CUDA Block Size </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(Power of Two) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>(small is better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pow-of-two'!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gpu compaction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'pow-of-two'!$B$62:$K$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pow-of-two'!$B$65:$K$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.51516799999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42716799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42188799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.456704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0004500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43110399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48230400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43929600000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46899200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-68AE-4620-BF2D-25DA5FD4521E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1647711535"/>
+        <c:axId val="1647711951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1647711535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
+                  <a:t>CUDA Block Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1647711951"/>
+        <c:crossesAt val="1.0000000000000003E-4"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1647711951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1647711535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2930,7 +5080,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3469,7 +5619,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4375,6 +6525,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6956,6 +9226,1554 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7576,6 +11394,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>90540</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9171DEF9-C9E3-4C64-AD00-B5524333E33E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>494400</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A91816C-EBCF-45B5-8742-ED6BE08A6E0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>235320</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46ADB6FB-DA90-4EA2-854C-DB9976C6CD7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8000,15 +11932,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CE84A5-2563-4FFD-BC3E-6EEBD0C18B3C}">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -8083,7 +12015,7 @@
         <v>0.56040000000000001</v>
       </c>
       <c r="K2">
-        <v>0.52880000000000005</v>
+        <v>3.1194999999999999</v>
       </c>
       <c r="L2">
         <v>10.0115</v>
@@ -8124,7 +12056,7 @@
         <v>0.16758400000000001</v>
       </c>
       <c r="K3">
-        <v>0.146592</v>
+        <v>0.30854399999999998</v>
       </c>
       <c r="L3">
         <v>0.76422400000000001</v>
@@ -8165,7 +12097,7 @@
         <v>0.82124799999999998</v>
       </c>
       <c r="K4">
-        <v>1.3408</v>
+        <v>6.11226</v>
       </c>
       <c r="L4">
         <v>11.9429</v>
@@ -8206,7 +12138,7 @@
         <v>0.35747200000000001</v>
       </c>
       <c r="K5">
-        <v>0.35430400000000001</v>
+        <v>1.1892199999999999</v>
       </c>
       <c r="L5">
         <v>4.8364500000000001</v>
@@ -8255,7 +12187,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>3.0822400000000001</v>
@@ -8296,42 +12228,83 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.56217600000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.61439999999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.75779200000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="F9">
+        <v>0.89071999999999996</v>
+      </c>
+      <c r="G9">
+        <v>1.4723200000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.5288299999999999</v>
+      </c>
+      <c r="I9">
+        <v>1.3312999999999999</v>
+      </c>
+      <c r="J9">
+        <v>3.3484799999999999</v>
+      </c>
+      <c r="K9">
+        <v>11.535399999999999</v>
+      </c>
+      <c r="L9">
+        <v>43.657200000000003</v>
+      </c>
+      <c r="M9">
+        <v>166.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>4.9152000000000001E-2</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>5.9327999999999999E-2</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>5.024E-2</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>5.5295999999999998E-2</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>9.9743999999999999E-2</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>9.3855999999999995E-2</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>0.20268800000000001</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>0.348576</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>0.46079999999999999</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>2.52867</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>10.7796</v>
       </c>
     </row>
@@ -8532,45 +12505,433 @@
       <c r="A53" t="s">
         <v>1</v>
       </c>
+      <c r="B53">
+        <v>0.56010000000000004</v>
+      </c>
+      <c r="C53">
+        <v>0.53669999999999995</v>
+      </c>
+      <c r="D53">
+        <v>0.57410000000000005</v>
+      </c>
+      <c r="E53">
+        <v>0.5484</v>
+      </c>
+      <c r="F53">
+        <v>0.58130000000000004</v>
+      </c>
+      <c r="G53">
+        <v>0.54390000000000005</v>
+      </c>
+      <c r="H53">
+        <v>0.60550000000000004</v>
+      </c>
+      <c r="I53">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="J53">
+        <v>0.51919999999999999</v>
+      </c>
+      <c r="K53">
+        <v>0.69969999999999999</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2</v>
       </c>
+      <c r="B54">
+        <v>0.16179199999999999</v>
+      </c>
+      <c r="C54">
+        <v>0.30515199999999998</v>
+      </c>
+      <c r="D54">
+        <v>0.14848</v>
+      </c>
+      <c r="E54">
+        <v>0.1696</v>
+      </c>
+      <c r="F54">
+        <v>0.231104</v>
+      </c>
+      <c r="G54">
+        <v>0.56217600000000001</v>
+      </c>
+      <c r="H54">
+        <v>0.14937600000000001</v>
+      </c>
+      <c r="I54">
+        <v>0.150528</v>
+      </c>
+      <c r="J54">
+        <v>0.55808000000000002</v>
+      </c>
+      <c r="K54">
+        <v>0.189632</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
+      <c r="B55">
+        <v>1.26054</v>
+      </c>
+      <c r="C55">
+        <v>0.65843200000000002</v>
+      </c>
+      <c r="D55">
+        <v>0.854016</v>
+      </c>
+      <c r="E55">
+        <v>1.14893</v>
+      </c>
+      <c r="F55">
+        <v>0.60723199999999999</v>
+      </c>
+      <c r="G55">
+        <v>0.61542399999999997</v>
+      </c>
+      <c r="H55">
+        <v>1.0065900000000001</v>
+      </c>
+      <c r="I55">
+        <v>0.60841599999999996</v>
+      </c>
+      <c r="J55">
+        <v>0.616448</v>
+      </c>
+      <c r="K55">
+        <v>0.69529600000000003</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
+      <c r="B56">
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="C56">
+        <v>0.35020800000000002</v>
+      </c>
+      <c r="D56">
+        <v>0.35123199999999999</v>
+      </c>
+      <c r="E56">
+        <v>0.35737600000000003</v>
+      </c>
+      <c r="F56">
+        <v>0.53247999999999995</v>
+      </c>
+      <c r="G56">
+        <v>0.35948799999999997</v>
+      </c>
+      <c r="H56">
+        <v>0.35532799999999998</v>
+      </c>
+      <c r="I56">
+        <v>0.36659199999999997</v>
+      </c>
+      <c r="J56">
+        <v>0.57139200000000001</v>
+      </c>
+      <c r="K56">
+        <v>0.39219199999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>32</v>
+      </c>
+      <c r="C58">
+        <v>64</v>
+      </c>
+      <c r="D58">
+        <v>96</v>
+      </c>
+      <c r="E58">
+        <v>128</v>
+      </c>
+      <c r="F58">
+        <v>192</v>
+      </c>
+      <c r="G58">
+        <v>256</v>
+      </c>
+      <c r="H58">
+        <v>384</v>
+      </c>
+      <c r="I58">
+        <v>512</v>
+      </c>
+      <c r="J58">
+        <v>768</v>
+      </c>
+      <c r="K58">
+        <v>1024</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
+      <c r="B59">
+        <v>20.937799999999999</v>
+      </c>
+      <c r="C59">
+        <v>18.501799999999999</v>
+      </c>
+      <c r="D59">
+        <v>20.706299999999999</v>
+      </c>
+      <c r="E59">
+        <v>18.191400000000002</v>
+      </c>
+      <c r="F59">
+        <v>18.696200000000001</v>
+      </c>
+      <c r="G59">
+        <v>21.273599999999998</v>
+      </c>
+      <c r="H59">
+        <v>22.1235</v>
+      </c>
+      <c r="I59">
+        <v>20.3203</v>
+      </c>
+      <c r="J59">
+        <v>22.9315</v>
+      </c>
+      <c r="K59">
+        <v>22.659099999999999</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
+      <c r="B60">
+        <v>0.30524800000000002</v>
+      </c>
+      <c r="C60">
+        <v>0.43702400000000002</v>
+      </c>
+      <c r="D60">
+        <v>0.34508800000000001</v>
+      </c>
+      <c r="E60">
+        <v>1.4131199999999999</v>
+      </c>
+      <c r="F60">
+        <v>0.31334400000000001</v>
+      </c>
+      <c r="G60">
+        <v>0.32358399999999998</v>
+      </c>
+      <c r="H60">
+        <v>0.35513600000000001</v>
+      </c>
+      <c r="I60">
+        <v>0.45875199999999999</v>
+      </c>
+      <c r="J60">
+        <v>0.30422399999999999</v>
+      </c>
+      <c r="K60">
+        <v>0.32553599999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>32</v>
+      </c>
+      <c r="C62">
+        <v>64</v>
+      </c>
+      <c r="D62">
+        <v>96</v>
+      </c>
+      <c r="E62">
+        <v>128</v>
+      </c>
+      <c r="F62">
+        <v>192</v>
+      </c>
+      <c r="G62">
+        <v>256</v>
+      </c>
+      <c r="H62">
+        <v>384</v>
+      </c>
+      <c r="I62">
+        <v>512</v>
+      </c>
+      <c r="J62">
+        <v>768</v>
+      </c>
+      <c r="K62">
+        <v>1024</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
+      <c r="B63">
+        <v>2.1892999999999998</v>
+      </c>
+      <c r="C63">
+        <v>2.1234999999999999</v>
+      </c>
+      <c r="D63">
+        <v>2.2427999999999999</v>
+      </c>
+      <c r="E63">
+        <v>2.1960000000000002</v>
+      </c>
+      <c r="F63">
+        <v>2.1265000000000001</v>
+      </c>
+      <c r="G63">
+        <v>2.2477999999999998</v>
+      </c>
+      <c r="H63">
+        <v>2.8734000000000002</v>
+      </c>
+      <c r="I63">
+        <v>2.2968999999999999</v>
+      </c>
+      <c r="J63">
+        <v>2.1758999999999999</v>
+      </c>
+      <c r="K63">
+        <v>2.2235</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
+      <c r="B64">
+        <v>3.8651</v>
+      </c>
+      <c r="C64">
+        <v>3.9874000000000001</v>
+      </c>
+      <c r="D64">
+        <v>4.4023000000000003</v>
+      </c>
+      <c r="E64">
+        <v>3.9767999999999999</v>
+      </c>
+      <c r="F64">
+        <v>4.1211000000000002</v>
+      </c>
+      <c r="G64">
+        <v>4.4577</v>
+      </c>
+      <c r="H64">
+        <v>4.4737</v>
+      </c>
+      <c r="I64">
+        <v>3.9611999999999998</v>
+      </c>
+      <c r="J64">
+        <v>4.8326000000000002</v>
+      </c>
+      <c r="K64">
+        <v>4.4082999999999997</v>
+      </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
+      </c>
+      <c r="B65">
+        <v>0.51516799999999996</v>
+      </c>
+      <c r="C65">
+        <v>0.42716799999999999</v>
+      </c>
+      <c r="D65">
+        <v>0.42188799999999999</v>
+      </c>
+      <c r="E65">
+        <v>0.456704</v>
+      </c>
+      <c r="F65">
+        <v>0.42496</v>
+      </c>
+      <c r="G65">
+        <v>1.0004500000000001</v>
+      </c>
+      <c r="H65">
+        <v>0.43110399999999999</v>
+      </c>
+      <c r="I65">
+        <v>0.48230400000000001</v>
+      </c>
+      <c r="J65">
+        <v>0.43929600000000002</v>
+      </c>
+      <c r="K65">
+        <v>0.46899200000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>64</v>
+      </c>
+      <c r="D68">
+        <v>256</v>
+      </c>
+      <c r="E68">
+        <v>1024</v>
+      </c>
+      <c r="F68">
+        <v>4096</v>
+      </c>
+      <c r="G68" s="1">
+        <v>16384</v>
+      </c>
+      <c r="H68" s="1">
+        <v>65536</v>
+      </c>
+      <c r="I68" s="1">
+        <v>262144</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1048576</v>
+      </c>
+      <c r="K68" s="1">
+        <v>4194304</v>
+      </c>
+      <c r="L68" s="1">
+        <v>16777216</v>
+      </c>
+      <c r="M68" s="1">
+        <v>67108864</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>3.3484799999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>0.69529600000000003</v>
       </c>
     </row>
   </sheetData>
